--- a/biology/Médecine/American_Society_of_Anesthesiologists/American_Society_of_Anesthesiologists.xlsx
+++ b/biology/Médecine/American_Society_of_Anesthesiologists/American_Society_of_Anesthesiologists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'American Society of Anesthesiologists (ASA) est une société américaine des anesthésistes.
 Cette société de recherche et une association scientifique de médecins organisés pour maintenir les normes de pratique médicale en anesthésie et pour améliorer le soin du patient. Elle a été fondée en 1905.
